--- a/data/data/data.xlsx
+++ b/data/data/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t xml:space="preserve">participant</t>
   </si>
@@ -112,12 +112,6 @@
     <t xml:space="preserve">TIME_total</t>
   </si>
   <si>
-    <t xml:space="preserve">s.6632c60b-7a46-419c-a8f7-a23d2dd18294.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-27-11-02</t>
-  </si>
-  <si>
     <t xml:space="preserve">s.0586c08c-5859-408d-b688-7ae58753f134.txt</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t xml:space="preserve">2021-10-27-11-06</t>
   </si>
   <si>
-    <t xml:space="preserve">s.f1f4a330-e6af-4faa-87c3-71c5d270a3cd.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">s.e48480c1-c5b2-40b7-b36a-66406ac1f349.txt</t>
   </si>
   <si>
@@ -145,19 +136,16 @@
     <t xml:space="preserve">2021-10-27-11-03</t>
   </si>
   <si>
-    <t xml:space="preserve">s.095d994b-e57e-49a1-a9a7-13bf65619b61.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.c13fe347-9e78-458b-8355-639e291dd038.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.136f3554-c513-47d8-8a65-89dffe08dcef.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.a010fa36-9cf3-401b-9c46-7bdada85b9a5.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-27-11-40</t>
+    <t xml:space="preserve">s.6f733ebc-0775-4b01-8461-354c0a1fa31e.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sart_psych.2021-12-04-0739.data.6f733ebc-0775-4b01-8461-354c0a1fa31e.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-39</t>
   </si>
   <si>
     <t xml:space="preserve">s.c60bf128-6745-4307-9ac0-19f251bd6740.txt</t>
@@ -172,16 +160,28 @@
     <t xml:space="preserve">2021-10-27-11-08</t>
   </si>
   <si>
-    <t xml:space="preserve">s.a4cd6f19-e821-4a1c-ac37-171ed7ea15f3.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-27-20-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.fdd34a39-ba31-450d-ba80-47abfce233aa.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-27-11-01</t>
+    <t xml:space="preserve">s.2da7d420-8872-462f-9cfe-1601ea4bbce7.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sart_psych.2021-12-03-1932.data.2da7d420-8872-462f-9cfe-1601ea4bbce7.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-19-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-19-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.19855e18-9b1d-4fc5-9d73-10a488ea28a5.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sart_psych.2021-12-04-0719.data.19855e18-9b1d-4fc5-9d73-10a488ea28a5.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-19</t>
   </si>
   <si>
     <t xml:space="preserve">s.27ccadf9-e714-4d77-9a3a-2d6c9d2f334c.txt</t>
@@ -193,19 +193,58 @@
     <t xml:space="preserve">2021-10-27-11-05</t>
   </si>
   <si>
+    <t xml:space="preserve">s.3b5a3439-0842-4963-88d2-01d804a827be.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sart_psych.2021-12-03-2249.data.3b5a3439-0842-4963-88d2-01d804a827be.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-22-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-22-49</t>
+  </si>
+  <si>
     <t xml:space="preserve">s.fe0d800a-b557-42c1-950a-fa787ead835b.txt</t>
   </si>
   <si>
     <t xml:space="preserve">sart_psych.2021-10-27-1105.data.fe0d800a-b557-42c1-950a-fa787ead835b.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">s.3c16804a-79f8-4bcc-9956-cdf237d35c01.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.8f7a75fa-91d7-41c3-968f-b28f5eff2993.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-26-13-16</t>
+    <t xml:space="preserve">s.0289eed0-7f87-4520-bf64-cf2b02349d8e.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sart_psych.2021-12-04-0730.data.0289eed0-7f87-4520-bf64-cf2b02349d8e.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.022b509f-ed47-4580-994d-d680fcbb8140.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sart_psych.2021-12-03-1904.data.022b509f-ed47-4580-994d-d680fcbb8140.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-18-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-03-19-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.afa22d63-a5ad-403d-9bb0-f1b2137ddf56.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sart_psych.2021-12-04-0821.data.afa22d63-a5ad-403d-9bb0-f1b2137ddf56.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-04-08-21</t>
   </si>
   <si>
     <t xml:space="preserve">s.a52d5052-693b-4409-98ce-71223cae48b3.txt</t>
@@ -238,9 +277,6 @@
     <t xml:space="preserve">sart_psych.2021-10-27-1105.data.3cad5b69-fbe1-4bd9-b077-fe0f72d6d36a.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">s.f2896dfc-586b-4fa5-9c4e-62576b7de3fd.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">s.a2d1576d-b269-4992-8d42-79b7c794e787.txt</t>
   </si>
   <si>
@@ -253,10 +289,16 @@
     <t xml:space="preserve">2021-10-27-11-16</t>
   </si>
   <si>
-    <t xml:space="preserve">s.4d6c2594-f891-466e-b117-ad9ea485c726.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.07afd402-15af-4a90-8d8c-23f1c5acd1a4.txt</t>
+    <t xml:space="preserve">s.bb3f3d7c-b3ff-45ba-8f28-49b15b1d0bef.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sart_psych.2021-11-03-0945.data.bb3f3d7c-b3ff-45ba-8f28-49b15b1d0bef.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-03-09-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-03-09-45</t>
   </si>
 </sst>
 </file>
@@ -352,7 +394,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -375,7 +417,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="64.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="15.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10.46"/>
   </cols>
   <sheetData>
@@ -476,19 +519,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>2</v>
@@ -497,99 +540,108 @@
         <v>7</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>6</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>3</v>
+        <v>5.33</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>6</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>6</v>
+        <v>6.67</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AA2" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="AB2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>6</v>
@@ -601,111 +653,111 @@
         <v>7</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>6</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>7</v>
+        <v>4.67</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>5.33</v>
+        <v>6.33</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>6.67</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>3</v>
+        <v>4.67</v>
       </c>
       <c r="Z3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>7</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>5.67</v>
+        <v>6.67</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>3.33</v>
+        <v>4.67</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>5.33</v>
@@ -716,111 +768,120 @@
       <c r="Z4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AA4" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="AB4" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>6</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>7</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>6.33</v>
+        <v>4.33</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>6.67</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>4.67</v>
+        <v>6</v>
       </c>
       <c r="Z5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -829,87 +890,96 @@
         <v>2</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>7</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>6</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>6</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>5</v>
+        <v>6.67</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>3.67</v>
+        <v>5.67</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>6.33</v>
+        <v>5.33</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="Z6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AA6" s="0" t="s">
+        <v>47</v>
+      </c>
       <c r="AB6" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>5</v>
@@ -918,13 +988,13 @@
         <v>4</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>7</v>
@@ -933,48 +1003,57 @@
         <v>2</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>5</v>
+        <v>3.67</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>3.67</v>
+        <v>4.33</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>3.67</v>
+        <v>4.33</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>5</v>
+        <v>5.67</v>
       </c>
       <c r="Z7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AA7" s="0" t="s">
+        <v>51</v>
+      </c>
       <c r="AB7" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -983,25 +1062,25 @@
         <v>4</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>5</v>
@@ -1010,128 +1089,146 @@
         <v>6</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>5</v>
+        <v>5.33</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>2.67</v>
+        <v>3.67</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>2.33</v>
+        <v>3.67</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>4.33</v>
+        <v>6.33</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>2.67</v>
+        <v>4</v>
       </c>
       <c r="Z8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AA8" s="0" t="s">
+        <v>55</v>
+      </c>
       <c r="AB8" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>6.33</v>
+        <v>5</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>4.67</v>
+        <v>3.33</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>5.33</v>
+        <v>1.33</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>4.67</v>
+        <v>4.33</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>5</v>
+        <v>2.33</v>
       </c>
       <c r="Z9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AA9" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="AB9" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>21</v>
@@ -1143,199 +1240,289 @@
         <v>4</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>6</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>5</v>
+        <v>6.33</v>
       </c>
       <c r="V10" s="0" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="X10" s="0" t="n">
         <v>4.33</v>
       </c>
-      <c r="W10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="Y10" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>6</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>6</v>
+        <v>5.33</v>
       </c>
       <c r="V11" s="0" t="n">
         <v>5.33</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>5.67</v>
+        <v>6</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>5.33</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AA11" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="AB11" s="0" t="s">
-        <v>51</v>
+        <v>65</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>5</v>
@@ -1347,7 +1534,7 @@
         <v>6</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>6</v>
@@ -1359,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>5</v>
@@ -1368,28 +1555,28 @@
         <v>5.33</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>3.67</v>
+        <v>4.33</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>3.67</v>
+        <v>4</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>6.33</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>4</v>
+        <v>4.67</v>
       </c>
       <c r="Z13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AD13" s="0" t="n">
         <v>11</v>
@@ -1397,10 +1584,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2</v>
@@ -1409,108 +1596,108 @@
         <v>4</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>6</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>6</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U14" s="0" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="W14" s="0" t="n">
         <v>6.33</v>
       </c>
-      <c r="V14" s="0" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="X14" s="0" t="n">
-        <v>4.33</v>
+        <v>6.33</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>5</v>
+        <v>3.67</v>
       </c>
       <c r="Z14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>2</v>
@@ -1519,140 +1706,158 @@
         <v>4</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>6</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>5</v>
+        <v>5.33</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>3.33</v>
+        <v>4.67</v>
       </c>
       <c r="X15" s="0" t="n">
         <v>5.33</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>3.33</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AA15" s="0" t="s">
+        <v>80</v>
+      </c>
       <c r="AB15" s="0" t="s">
-        <v>39</v>
+        <v>81</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>3.67</v>
+        <v>5</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>3.67</v>
+        <v>2.33</v>
       </c>
       <c r="X16" s="0" t="n">
         <v>3.67</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>3.67</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AA16" s="0" t="s">
+        <v>84</v>
+      </c>
       <c r="AB16" s="0" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>4</v>
@@ -1661,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>2</v>
@@ -1670,22 +1875,22 @@
         <v>7</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>6</v>
@@ -1700,544 +1905,126 @@
         <v>1</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>5.67</v>
+        <v>4.67</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>3.67</v>
+        <v>3</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>6.33</v>
+        <v>6</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>6.33</v>
+        <v>6</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>3.67</v>
+        <v>2.67</v>
       </c>
       <c r="Z17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="AD17" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>6</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>7</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>5.33</v>
       </c>
       <c r="V18" s="0" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>4.67</v>
+        <v>3.67</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>5.33</v>
+        <v>6</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AD18" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC19" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD19" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="X20" s="0" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB21" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC21" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD21" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="U22" s="0" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="U23" s="0" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="V23" s="0" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Z23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="0" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
